--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -95,13 +95,16 @@
     <t>Maschio</t>
   </si>
   <si>
-    <t>Secondario di primo grado</t>
+    <t>Non binario</t>
   </si>
   <si>
     <t>Universita</t>
   </si>
   <si>
     <t>Secondario di secondo grado</t>
+  </si>
+  <si>
+    <t>Secondario di primo grado</t>
   </si>
   <si>
     <t>Frequency</t>
@@ -468,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,73 +556,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>11</v>
+      </c>
+      <c r="I2">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="J2">
+        <v>417</v>
+      </c>
+      <c r="K2">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
         <v>7</v>
       </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>372</v>
-      </c>
-      <c r="K2">
-        <v>25</v>
-      </c>
-      <c r="L2">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
       <c r="N2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O2">
         <v>9</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
         <v>2.75</v>
       </c>
       <c r="V2">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>2.75</v>
       </c>
       <c r="X2">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -627,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>8</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="K3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="R3">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="S3">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T3">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
         <v>3.75</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
-        <v>6.333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -701,73 +704,73 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>364</v>
+      </c>
+      <c r="K4">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>16</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>6</v>
       </c>
-      <c r="J4">
-        <v>293</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
-      </c>
-      <c r="L4">
-        <v>12</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>8</v>
-      </c>
       <c r="O4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U4">
         <v>3.5</v>
       </c>
       <c r="V4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -775,73 +778,73 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>196</v>
+      </c>
+      <c r="K5">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
         <v>8</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>173</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>1.75</v>
+      </c>
+      <c r="R5">
+        <v>2.75</v>
+      </c>
+      <c r="S5">
+        <v>1.5</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>1.5</v>
+      </c>
+      <c r="W5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>4.25</v>
-      </c>
-      <c r="S5">
-        <v>4.5</v>
-      </c>
-      <c r="T5">
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <v>3.75</v>
-      </c>
-      <c r="V5">
-        <v>3.5</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
       <c r="X5">
-        <v>6.166666666666667</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -858,64 +861,64 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>561</v>
+        <v>1316</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="R6">
+        <v>3.75</v>
+      </c>
+      <c r="S6">
+        <v>2.5</v>
+      </c>
+      <c r="T6">
         <v>3.25</v>
       </c>
-      <c r="S6">
+      <c r="U6">
+        <v>2.5</v>
+      </c>
+      <c r="V6">
         <v>3.25</v>
       </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>1.5</v>
-      </c>
       <c r="W6">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="X6">
-        <v>5.666666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -923,46 +926,46 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>11</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -971,25 +974,25 @@
         <v>2.75</v>
       </c>
       <c r="R7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="S7">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V7">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="W7">
         <v>3</v>
       </c>
       <c r="X7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1006,64 +1009,64 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>80</v>
+      </c>
+      <c r="K8">
+        <v>84</v>
+      </c>
+      <c r="L8">
+        <v>18</v>
+      </c>
+      <c r="M8">
         <v>11</v>
       </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>584</v>
-      </c>
-      <c r="K8">
-        <v>68</v>
-      </c>
-      <c r="L8">
-        <v>27</v>
-      </c>
-      <c r="M8">
-        <v>13</v>
-      </c>
       <c r="N8">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>7</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R8">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="V8">
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="W8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="X8">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1071,73 +1074,73 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J9">
-        <v>-7</v>
+        <v>182</v>
       </c>
       <c r="K9">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
       </c>
       <c r="R9">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="S9">
         <v>4.25</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V9">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="X9">
-        <v>5.666666666666667</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1145,73 +1148,73 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>2</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="S10">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U10">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V10">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>4.333333333333333</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1228,64 +1231,64 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
       <c r="I11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>174</v>
+        <v>561</v>
       </c>
       <c r="K11">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
         <v>3.25</v>
       </c>
-      <c r="R11">
-        <v>4.25</v>
-      </c>
       <c r="S11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T11">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="W11">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="X11">
-        <v>5.5</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1293,73 +1296,73 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>898</v>
+      </c>
+      <c r="K12">
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>17</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
         <v>12</v>
       </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="J12">
-        <v>147</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>4</v>
-      </c>
       <c r="Q12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R12">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="S12">
+        <v>4.5</v>
+      </c>
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>2.75</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>3.25</v>
       </c>
-      <c r="U12">
-        <v>3.75</v>
-      </c>
-      <c r="V12">
-        <v>2.75</v>
-      </c>
       <c r="W12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -1376,58 +1379,58 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>817</v>
+        <v>178</v>
       </c>
       <c r="K13">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R13">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="S13">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="T13">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
         <v>2.25</v>
-      </c>
-      <c r="U13">
-        <v>2.75</v>
-      </c>
-      <c r="V13">
-        <v>3</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1441,43 +1444,43 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>27</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
       <c r="J14">
-        <v>142</v>
+        <v>-7</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>163</v>
       </c>
       <c r="L14">
         <v>5</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>2</v>
@@ -1486,28 +1489,28 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R14">
         <v>4.25</v>
       </c>
       <c r="S14">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="W14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>3.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -1524,64 +1527,64 @@
         <v>27</v>
       </c>
       <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
         <v>12</v>
       </c>
-      <c r="F15">
-        <v>17</v>
-      </c>
       <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
         <v>12</v>
       </c>
-      <c r="H15">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>9</v>
-      </c>
       <c r="J15">
-        <v>539</v>
+        <v>584</v>
       </c>
       <c r="K15">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>14</v>
       </c>
       <c r="O15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q15">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>4.5</v>
       </c>
       <c r="S15">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T15">
         <v>3.5</v>
       </c>
       <c r="U15">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V15">
+        <v>1.75</v>
+      </c>
+      <c r="W15">
         <v>2.75</v>
       </c>
-      <c r="W15">
-        <v>4.5</v>
-      </c>
       <c r="X15">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1589,73 +1592,73 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I16">
         <v>7</v>
       </c>
       <c r="J16">
-        <v>264</v>
+        <v>372</v>
       </c>
       <c r="K16">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="L16">
         <v>20</v>
       </c>
       <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
         <v>9</v>
       </c>
-      <c r="N16">
-        <v>11</v>
-      </c>
-      <c r="O16">
-        <v>11</v>
-      </c>
       <c r="P16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="R16">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="S16">
         <v>3.5</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="V16">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="W16">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="X16">
-        <v>5.166666666666667</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1663,55 +1666,55 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
       <c r="G17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>13</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R17">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="S17">
         <v>4.25</v>
@@ -1720,16 +1723,16 @@
         <v>3</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="X17">
-        <v>4.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1737,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1746,64 +1749,64 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>804</v>
+      </c>
+      <c r="K18">
+        <v>62</v>
+      </c>
+      <c r="L18">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>27</v>
+      </c>
+      <c r="O18">
+        <v>15</v>
+      </c>
+      <c r="P18">
         <v>12</v>
       </c>
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>196</v>
-      </c>
-      <c r="K18">
-        <v>30</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18">
-        <v>8</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>5</v>
-      </c>
       <c r="Q18">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="T18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="U18">
         <v>2.5</v>
       </c>
       <c r="V18">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="W18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1811,73 +1814,73 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J19">
-        <v>1179</v>
+        <v>147</v>
       </c>
       <c r="K19">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3.5</v>
+      </c>
+      <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>3.25</v>
+      </c>
+      <c r="U19">
+        <v>3.75</v>
+      </c>
+      <c r="V19">
+        <v>2.75</v>
+      </c>
+      <c r="W19">
+        <v>2.5</v>
+      </c>
+      <c r="X19">
         <v>6</v>
-      </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>4.25</v>
-      </c>
-      <c r="S19">
-        <v>4.25</v>
-      </c>
-      <c r="T19">
-        <v>3.5</v>
-      </c>
-      <c r="U19">
-        <v>4.25</v>
-      </c>
-      <c r="V19">
-        <v>3.5</v>
-      </c>
-      <c r="W19">
-        <v>3.5</v>
-      </c>
-      <c r="X19">
-        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1891,67 +1894,67 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
         <v>12</v>
       </c>
-      <c r="G20">
-        <v>9</v>
-      </c>
       <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>817</v>
+      </c>
+      <c r="K20">
+        <v>124</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
         <v>11</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>105</v>
-      </c>
-      <c r="K20">
-        <v>13</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
       <c r="Q20">
+        <v>3.5</v>
+      </c>
+      <c r="R20">
+        <v>3.75</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
         <v>2.75</v>
       </c>
-      <c r="R20">
-        <v>4.5</v>
-      </c>
-      <c r="S20">
-        <v>4.25</v>
-      </c>
-      <c r="T20">
-        <v>3</v>
-      </c>
-      <c r="U20">
-        <v>3.75</v>
-      </c>
       <c r="V20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X20">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -1959,155 +1962,155 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <v>10</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I21">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>364</v>
+        <v>1179</v>
       </c>
       <c r="K21">
+        <v>54</v>
+      </c>
+      <c r="L21">
         <v>31</v>
       </c>
-      <c r="L21">
-        <v>16</v>
-      </c>
       <c r="M21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N21">
+        <v>11</v>
+      </c>
+      <c r="O21">
         <v>6</v>
       </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
       <c r="P21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U21">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W21">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="X21">
-        <v>5.5</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>539</v>
+      </c>
+      <c r="K22">
+        <v>23</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
         <v>16</v>
       </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>13</v>
-      </c>
-      <c r="H22">
-        <v>17</v>
-      </c>
-      <c r="I22">
-        <v>10</v>
-      </c>
-      <c r="J22">
-        <v>611</v>
-      </c>
-      <c r="K22">
-        <v>30</v>
-      </c>
-      <c r="L22">
-        <v>19</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
       <c r="N22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O22">
         <v>14</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>3.5</v>
       </c>
       <c r="R22">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T22">
+        <v>3.5</v>
+      </c>
+      <c r="U22">
+        <v>3.75</v>
+      </c>
+      <c r="V22">
         <v>2.75</v>
       </c>
-      <c r="U22">
-        <v>3.25</v>
-      </c>
-      <c r="V22">
-        <v>3.75</v>
-      </c>
       <c r="W22">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="X22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2116,87 +2119,87 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+      <c r="J23">
+        <v>264</v>
+      </c>
+      <c r="K23">
+        <v>45</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
         <v>11</v>
       </c>
-      <c r="G23">
-        <v>12</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>91</v>
-      </c>
-      <c r="K23">
-        <v>18</v>
-      </c>
-      <c r="L23">
-        <v>8</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-      <c r="N23">
-        <v>6</v>
-      </c>
       <c r="O23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R23">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U23">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="W23">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="X23">
-        <v>2.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>10</v>
@@ -2205,140 +2208,140 @@
         <v>6</v>
       </c>
       <c r="J24">
-        <v>348</v>
+        <v>174</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="S24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="T24">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="U24">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="V24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W24">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
         <v>14</v>
       </c>
-      <c r="F25">
-        <v>12</v>
-      </c>
       <c r="G25">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J25">
-        <v>483</v>
+        <v>273</v>
       </c>
       <c r="K25">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R25">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="S25">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="V25">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="W25">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="X25">
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26">
         <v>16</v>
@@ -2347,55 +2350,55 @@
         <v>12</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="K26">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R26">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="S26">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="T26">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="V26">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="W26">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X26">
-        <v>5.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2477,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -2486,64 +2489,64 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>14</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>532</v>
+        <v>448</v>
       </c>
       <c r="K28">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R28">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="S28">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="V28">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="W28">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="X28">
-        <v>5.166666666666667</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2551,73 +2554,73 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
         <v>12</v>
       </c>
-      <c r="F29">
-        <v>13</v>
-      </c>
       <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
         <v>9</v>
       </c>
-      <c r="H29">
-        <v>10</v>
-      </c>
       <c r="I29">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>926</v>
+        <v>483</v>
       </c>
       <c r="K29">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N29">
+        <v>13</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+      <c r="P29">
         <v>2</v>
       </c>
-      <c r="O29">
-        <v>2</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R29">
         <v>4.5</v>
       </c>
       <c r="S29">
+        <v>3.75</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+      <c r="U29">
         <v>4.5</v>
       </c>
-      <c r="T29">
-        <v>4.5</v>
-      </c>
-      <c r="U29">
-        <v>4</v>
-      </c>
       <c r="V29">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="W29">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="X29">
-        <v>6.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2625,31 +2628,31 @@
         <v>1</v>
       </c>
       <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
         <v>24</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30">
-        <v>441</v>
+        <v>348</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -2658,40 +2661,40 @@
         <v>15</v>
       </c>
       <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>10</v>
+      </c>
+      <c r="O30">
+        <v>8</v>
+      </c>
+      <c r="P30">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>13</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-      <c r="P30">
-        <v>10</v>
-      </c>
       <c r="Q30">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
         <v>4.5</v>
       </c>
-      <c r="S30">
-        <v>4</v>
-      </c>
       <c r="T30">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="U30">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="V30">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="X30">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2699,73 +2702,73 @@
         <v>1</v>
       </c>
       <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>16</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>138</v>
+      </c>
+      <c r="K31">
         <v>19</v>
       </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
-        <v>18</v>
-      </c>
-      <c r="F31">
-        <v>15</v>
-      </c>
-      <c r="G31">
-        <v>15</v>
-      </c>
-      <c r="H31">
-        <v>13</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31">
-        <v>85</v>
-      </c>
-      <c r="K31">
-        <v>22</v>
-      </c>
       <c r="L31">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R31">
         <v>3.5</v>
       </c>
       <c r="S31">
+        <v>4.25</v>
+      </c>
+      <c r="T31">
         <v>3.25</v>
       </c>
-      <c r="T31">
-        <v>2.25</v>
-      </c>
       <c r="U31">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V31">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="W31">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="X31">
-        <v>6.666666666666667</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2773,73 +2776,73 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>13</v>
       </c>
       <c r="G32">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="I32">
         <v>10</v>
       </c>
-      <c r="I32">
-        <v>9</v>
-      </c>
       <c r="J32">
-        <v>384</v>
+        <v>627</v>
       </c>
       <c r="K32">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N32">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="P32">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R32">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="S32">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="V32">
-        <v>1.75</v>
+        <v>4.25</v>
       </c>
       <c r="W32">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="X32">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2847,46 +2850,46 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33">
         <v>16</v>
       </c>
       <c r="G33">
+        <v>13</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
         <v>10</v>
       </c>
-      <c r="H33">
+      <c r="J33">
+        <v>611</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>19</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>16</v>
+      </c>
+      <c r="O33">
         <v>14</v>
-      </c>
-      <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33">
-        <v>294</v>
-      </c>
-      <c r="K33">
-        <v>8</v>
-      </c>
-      <c r="L33">
-        <v>12</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>12</v>
-      </c>
-      <c r="O33">
-        <v>10</v>
       </c>
       <c r="P33">
         <v>2</v>
@@ -2898,22 +2901,22 @@
         <v>4.25</v>
       </c>
       <c r="S33">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V33">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W33">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="X33">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2921,73 +2924,73 @@
         <v>1</v>
       </c>
       <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
         <v>24</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
       </c>
       <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>11</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>91</v>
+      </c>
+      <c r="K34">
         <v>18</v>
       </c>
-      <c r="F34">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>554</v>
-      </c>
-      <c r="K34">
-        <v>12</v>
-      </c>
       <c r="L34">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P34">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>3.5</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
         <v>2.75</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>3.25</v>
       </c>
-      <c r="S34">
-        <v>3.5</v>
-      </c>
-      <c r="T34">
-        <v>1.5</v>
-      </c>
-      <c r="U34">
-        <v>1.5</v>
-      </c>
       <c r="V34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X34">
-        <v>6.166666666666667</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -2995,73 +2998,73 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>668</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="Q35">
         <v>2.5</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="S35">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T35">
         <v>2.25</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="V35">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="X35">
-        <v>4.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3069,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -3078,64 +3081,64 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G36">
+        <v>12</v>
+      </c>
+      <c r="H36">
         <v>8</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7</v>
       </c>
-      <c r="I36">
-        <v>14</v>
-      </c>
       <c r="J36">
-        <v>958</v>
+        <v>441</v>
       </c>
       <c r="K36">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O36">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S36">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V36">
         <v>3.75</v>
       </c>
       <c r="W36">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="X36">
-        <v>5.833333333333333</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -3152,64 +3155,64 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>14</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+      <c r="J37">
+        <v>532</v>
+      </c>
+      <c r="K37">
+        <v>137</v>
+      </c>
+      <c r="L37">
+        <v>16</v>
+      </c>
+      <c r="M37">
         <v>12</v>
       </c>
-      <c r="G37">
-        <v>12</v>
-      </c>
-      <c r="H37">
-        <v>8</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>82</v>
-      </c>
-      <c r="K37">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="S37">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="T37">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="V37">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="W37">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
-        <v>6.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3217,73 +3220,73 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <v>7</v>
       </c>
       <c r="J38">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="K38">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N38">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R38">
+        <v>4</v>
+      </c>
+      <c r="S38">
+        <v>3</v>
+      </c>
+      <c r="T38">
+        <v>2.75</v>
+      </c>
+      <c r="U38">
+        <v>3.25</v>
+      </c>
+      <c r="V38">
+        <v>3.5</v>
+      </c>
+      <c r="W38">
+        <v>3.25</v>
+      </c>
+      <c r="X38">
         <v>5</v>
-      </c>
-      <c r="S38">
-        <v>4.75</v>
-      </c>
-      <c r="T38">
-        <v>3.75</v>
-      </c>
-      <c r="U38">
-        <v>4</v>
-      </c>
-      <c r="V38">
-        <v>3.5</v>
-      </c>
-      <c r="W38">
-        <v>3</v>
-      </c>
-      <c r="X38">
-        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3291,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -3300,64 +3303,64 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39">
         <v>12</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J39">
-        <v>365</v>
+        <v>911</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N39">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q39">
         <v>3</v>
       </c>
       <c r="R39">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="S39">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>3</v>
+      </c>
+      <c r="W39">
         <v>2.25</v>
       </c>
-      <c r="U39">
-        <v>3.5</v>
-      </c>
-      <c r="V39">
-        <v>3</v>
-      </c>
-      <c r="W39">
-        <v>3.25</v>
-      </c>
       <c r="X39">
-        <v>5.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3365,73 +3368,73 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>13</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>384</v>
+      </c>
+      <c r="K40">
+        <v>54</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
         <v>28</v>
       </c>
-      <c r="E40">
-        <v>12</v>
-      </c>
-      <c r="F40">
-        <v>13</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>627</v>
-      </c>
-      <c r="K40">
-        <v>28</v>
-      </c>
-      <c r="L40">
-        <v>16</v>
-      </c>
-      <c r="M40">
+      <c r="O40">
         <v>15</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
       <c r="P40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q40">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="R40">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="S40">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="V40">
-        <v>4.25</v>
+        <v>1.75</v>
       </c>
       <c r="W40">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="X40">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3439,72 +3442,812 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
       </c>
       <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>294</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>12</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>12</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>3.5</v>
+      </c>
+      <c r="R41">
+        <v>4.25</v>
+      </c>
+      <c r="S41">
+        <v>4.25</v>
+      </c>
+      <c r="T41">
+        <v>2.75</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>3.5</v>
+      </c>
+      <c r="W41">
+        <v>2.25</v>
+      </c>
+      <c r="X41">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>14</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>554</v>
+      </c>
+      <c r="K42">
+        <v>12</v>
+      </c>
+      <c r="L42">
+        <v>35</v>
+      </c>
+      <c r="M42">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <v>31</v>
+      </c>
+      <c r="O42">
+        <v>14</v>
+      </c>
+      <c r="P42">
+        <v>17</v>
+      </c>
+      <c r="Q42">
+        <v>2.75</v>
+      </c>
+      <c r="R42">
+        <v>3.25</v>
+      </c>
+      <c r="S42">
+        <v>3.5</v>
+      </c>
+      <c r="T42">
+        <v>1.5</v>
+      </c>
+      <c r="U42">
+        <v>1.5</v>
+      </c>
+      <c r="V42">
+        <v>2.25</v>
+      </c>
+      <c r="W42">
+        <v>2.25</v>
+      </c>
+      <c r="X42">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>14</v>
+      </c>
+      <c r="G43">
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43">
+        <v>18</v>
+      </c>
+      <c r="J43">
+        <v>1246</v>
+      </c>
+      <c r="K43">
+        <v>36</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>30</v>
+      </c>
+      <c r="O43">
+        <v>25</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>3.5</v>
+      </c>
+      <c r="S43">
+        <v>3.25</v>
+      </c>
+      <c r="T43">
+        <v>1.75</v>
+      </c>
+      <c r="U43">
+        <v>1.75</v>
+      </c>
+      <c r="V43">
+        <v>2.25</v>
+      </c>
+      <c r="W43">
+        <v>2.75</v>
+      </c>
+      <c r="X43">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
         <v>26</v>
       </c>
-      <c r="E41">
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>11</v>
+      </c>
+      <c r="F44">
+        <v>14</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>729</v>
+      </c>
+      <c r="K44">
+        <v>122</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>17</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>2.25</v>
+      </c>
+      <c r="R44">
+        <v>4.25</v>
+      </c>
+      <c r="S44">
+        <v>4.5</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>3.5</v>
+      </c>
+      <c r="V44">
+        <v>2.5</v>
+      </c>
+      <c r="W44">
+        <v>2.25</v>
+      </c>
+      <c r="X44">
+        <v>3.833333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>16</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>668</v>
+      </c>
+      <c r="K45">
+        <v>14</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>25</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>18</v>
+      </c>
+      <c r="Q45">
+        <v>2.5</v>
+      </c>
+      <c r="R45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>3.75</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45">
+        <v>1.5</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+      <c r="F46">
+        <v>16</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>958</v>
+      </c>
+      <c r="K46">
+        <v>20</v>
+      </c>
+      <c r="L46">
+        <v>35</v>
+      </c>
+      <c r="M46">
+        <v>12</v>
+      </c>
+      <c r="N46">
+        <v>23</v>
+      </c>
+      <c r="O46">
+        <v>18</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>3.5</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
+      </c>
+      <c r="S46">
+        <v>4.75</v>
+      </c>
+      <c r="T46">
+        <v>3.25</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46">
+        <v>3.75</v>
+      </c>
+      <c r="W46">
+        <v>3.75</v>
+      </c>
+      <c r="X46">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>82</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
+      </c>
+      <c r="S47">
+        <v>4.25</v>
+      </c>
+      <c r="T47">
+        <v>4.25</v>
+      </c>
+      <c r="U47">
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>2.5</v>
+      </c>
+      <c r="W47">
+        <v>3.75</v>
+      </c>
+      <c r="X47">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>16</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>268</v>
+      </c>
+      <c r="K48">
+        <v>40</v>
+      </c>
+      <c r="L48">
+        <v>24</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>24</v>
+      </c>
+      <c r="O48">
+        <v>14</v>
+      </c>
+      <c r="P48">
+        <v>10</v>
+      </c>
+      <c r="Q48">
+        <v>3.5</v>
+      </c>
+      <c r="R48">
+        <v>5</v>
+      </c>
+      <c r="S48">
+        <v>4.75</v>
+      </c>
+      <c r="T48">
+        <v>3.75</v>
+      </c>
+      <c r="U48">
+        <v>4</v>
+      </c>
+      <c r="V48">
+        <v>3.5</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="J49">
+        <v>365</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>19</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>18</v>
+      </c>
+      <c r="O49">
+        <v>6</v>
+      </c>
+      <c r="P49">
+        <v>12</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49">
+        <v>3.75</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>2.25</v>
+      </c>
+      <c r="U49">
+        <v>3.5</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>3.25</v>
+      </c>
+      <c r="X49">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>9</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>13</v>
+      </c>
+      <c r="J50">
+        <v>926</v>
+      </c>
+      <c r="K50">
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>8</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>3.75</v>
+      </c>
+      <c r="R50">
+        <v>4.5</v>
+      </c>
+      <c r="S50">
+        <v>4.5</v>
+      </c>
+      <c r="T50">
+        <v>4.5</v>
+      </c>
+      <c r="U50">
+        <v>4</v>
+      </c>
+      <c r="V50">
+        <v>3.5</v>
+      </c>
+      <c r="W50">
+        <v>4.5</v>
+      </c>
+      <c r="X50">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>19</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51">
         <v>15</v>
       </c>
-      <c r="F41">
-        <v>13</v>
-      </c>
-      <c r="G41">
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51">
         <v>12</v>
       </c>
-      <c r="H41">
+      <c r="H51">
         <v>12</v>
       </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
         <v>203</v>
       </c>
-      <c r="K41">
+      <c r="K51">
         <v>5</v>
       </c>
-      <c r="L41">
+      <c r="L51">
         <v>6</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>6</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>4</v>
-      </c>
-      <c r="Q41">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
         <v>2.5</v>
       </c>
-      <c r="R41">
+      <c r="R51">
         <v>3.75</v>
       </c>
-      <c r="S41">
-        <v>3.5</v>
-      </c>
-      <c r="T41">
+      <c r="S51">
+        <v>3.5</v>
+      </c>
+      <c r="T51">
         <v>2.5</v>
       </c>
-      <c r="U41">
+      <c r="U51">
         <v>2.75</v>
       </c>
-      <c r="V41">
+      <c r="V51">
         <v>1.5</v>
       </c>
-      <c r="W41">
+      <c r="W51">
         <v>2.75</v>
       </c>
-      <c r="X41">
+      <c r="X51">
         <v>5.5</v>
       </c>
     </row>
@@ -3526,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -3591,64 +4334,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>25.1</v>
+        <v>24.96</v>
       </c>
       <c r="F2">
-        <v>7.3</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="G2">
-        <v>335.05</v>
+        <v>408.64</v>
       </c>
       <c r="H2">
-        <v>39.2</v>
+        <v>41</v>
       </c>
       <c r="I2">
-        <v>14.45</v>
+        <v>18.04</v>
       </c>
       <c r="J2">
-        <v>7.4</v>
+        <v>9.24</v>
       </c>
       <c r="K2">
-        <v>7.05</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2">
-        <v>4.55</v>
+        <v>5.48</v>
       </c>
       <c r="M2">
-        <v>2.4</v>
+        <v>3.24</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>3.07</v>
       </c>
       <c r="O2">
-        <v>4.0625</v>
+        <v>4.15</v>
       </c>
       <c r="P2">
-        <v>3.7125</v>
+        <v>3.79</v>
       </c>
       <c r="Q2">
-        <v>2.9875</v>
+        <v>3.03</v>
       </c>
       <c r="R2">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="S2">
-        <v>2.7375</v>
+        <v>2.88</v>
       </c>
       <c r="T2">
-        <v>3.1375</v>
+        <v>2.98</v>
       </c>
       <c r="U2">
-        <v>5.308333333333334</v>
+        <v>5.386666666666668</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -3656,64 +4399,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>25.55</v>
+        <v>25.04</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G3">
-        <v>443.3</v>
+        <v>500.92</v>
       </c>
       <c r="H3">
-        <v>27.3</v>
+        <v>32.48</v>
       </c>
       <c r="I3">
-        <v>19.25</v>
+        <v>19.4</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>4.84</v>
       </c>
       <c r="K3">
-        <v>15.15</v>
+        <v>14.56</v>
       </c>
       <c r="L3">
-        <v>8.65</v>
+        <v>8.76</v>
       </c>
       <c r="M3">
-        <v>6.4</v>
+        <v>5.72</v>
       </c>
       <c r="N3">
-        <v>3.3125</v>
+        <v>3.23</v>
       </c>
       <c r="O3">
-        <v>4.0625</v>
+        <v>4.01</v>
       </c>
       <c r="P3">
-        <v>3.9125</v>
+        <v>3.82</v>
       </c>
       <c r="Q3">
-        <v>3.1875</v>
+        <v>3.08</v>
       </c>
       <c r="R3">
-        <v>3.325</v>
+        <v>3.28</v>
       </c>
       <c r="S3">
-        <v>3.125</v>
+        <v>3.12</v>
       </c>
       <c r="T3">
-        <v>3.0625</v>
+        <v>3.03</v>
       </c>
       <c r="U3">
-        <v>5.625</v>
+        <v>5.533333333333332</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X51"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -565,61 +565,61 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>13</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I2">
         <v>8</v>
       </c>
       <c r="J2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="L2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
         <v>7</v>
       </c>
-      <c r="N2">
-        <v>14</v>
-      </c>
       <c r="O2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R2">
         <v>5</v>
       </c>
       <c r="S2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U2">
-        <v>2.75</v>
+        <v>4.25</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="X2">
         <v>6</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
+      <c r="J3">
+        <v>364</v>
+      </c>
+      <c r="K3">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3">
-        <v>142</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R3">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>3.25</v>
+      </c>
+      <c r="U3">
         <v>3.5</v>
       </c>
-      <c r="T3">
-        <v>2.25</v>
-      </c>
-      <c r="U3">
-        <v>3.75</v>
-      </c>
       <c r="V3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="X3">
-        <v>3.333333333333333</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>16</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -725,52 +725,52 @@
         <v>13</v>
       </c>
       <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>196</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>8</v>
       </c>
-      <c r="J4">
-        <v>364</v>
-      </c>
-      <c r="K4">
-        <v>31</v>
-      </c>
-      <c r="L4">
-        <v>16</v>
-      </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
       <c r="O4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4">
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <v>1.75</v>
+      </c>
+      <c r="R4">
+        <v>2.75</v>
+      </c>
+      <c r="S4">
+        <v>1.5</v>
+      </c>
+      <c r="T4">
+        <v>1.5</v>
+      </c>
+      <c r="U4">
+        <v>2.5</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="Q4">
-        <v>3.25</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
-      </c>
-      <c r="T4">
-        <v>3.25</v>
-      </c>
-      <c r="U4">
-        <v>3.5</v>
-      </c>
-      <c r="V4">
-        <v>3</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
       <c r="X4">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -778,73 +778,73 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>10</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="K5">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>8</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="R5">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="S5">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="T5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="V5">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -935,64 +935,64 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>182</v>
+      </c>
+      <c r="K7">
+        <v>15</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="J7">
-        <v>293</v>
-      </c>
-      <c r="K7">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
       <c r="N7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="R7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="S7">
+        <v>4.25</v>
+      </c>
+      <c r="T7">
         <v>3.75</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
       <c r="U7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="W7">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="X7">
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1009,64 +1009,64 @@
         <v>27</v>
       </c>
       <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
       <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>173</v>
+      </c>
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>80</v>
-      </c>
-      <c r="K8">
-        <v>84</v>
-      </c>
       <c r="L8">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4.25</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>3.5</v>
+      </c>
+      <c r="U8">
         <v>3.75</v>
       </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-      <c r="T8">
-        <v>3.75</v>
-      </c>
-      <c r="U8">
-        <v>4.25</v>
-      </c>
       <c r="V8">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="W8">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>6</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1074,73 +1074,73 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>561</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>21</v>
+      </c>
+      <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
         <v>8</v>
       </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>182</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
       <c r="O9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="R9">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="S9">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="T9">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="W9">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="X9">
-        <v>6.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1148,73 +1148,73 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
         <v>14</v>
       </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
       <c r="J10">
-        <v>173</v>
+        <v>898</v>
       </c>
       <c r="K10">
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>17</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>12</v>
+      </c>
+      <c r="P10">
         <v>6</v>
       </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>2</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R10">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="S10">
         <v>4.5</v>
       </c>
       <c r="T10">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="V10">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="X10">
-        <v>6.166666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1231,64 +1231,64 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>561</v>
+        <v>178</v>
       </c>
       <c r="K11">
         <v>20</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="R11">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="S11">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="W11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>5.666666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1305,37 +1305,37 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>1063</v>
+      </c>
+      <c r="K12">
+        <v>69</v>
+      </c>
+      <c r="L12">
+        <v>47</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>22</v>
+      </c>
+      <c r="O12">
         <v>16</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>13</v>
-      </c>
-      <c r="I12">
-        <v>14</v>
-      </c>
-      <c r="J12">
-        <v>898</v>
-      </c>
-      <c r="K12">
-        <v>38</v>
-      </c>
-      <c r="L12">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>17</v>
-      </c>
-      <c r="N12">
-        <v>18</v>
-      </c>
-      <c r="O12">
-        <v>12</v>
       </c>
       <c r="P12">
         <v>6</v>
@@ -1344,25 +1344,25 @@
         <v>3.25</v>
       </c>
       <c r="R12">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="S12">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="T12">
         <v>3</v>
       </c>
       <c r="U12">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="W12">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>5.5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1373,16 +1373,16 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>13</v>
@@ -1391,52 +1391,52 @@
         <v>11</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J13">
-        <v>178</v>
+        <v>417</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <v>2.75</v>
       </c>
       <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
         <v>4.5</v>
       </c>
-      <c r="S13">
-        <v>4.25</v>
-      </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V13">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="W13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1444,73 +1444,73 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>-7</v>
+        <v>372</v>
       </c>
       <c r="K14">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>2.25</v>
+      </c>
+      <c r="R14">
         <v>5</v>
       </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>2</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>3.75</v>
-      </c>
-      <c r="R14">
-        <v>4.25</v>
-      </c>
       <c r="S14">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="V14">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X14">
-        <v>5.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1592,73 +1592,73 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
       <c r="H16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="K16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="S16">
         <v>3.5</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="V16">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="X16">
-        <v>5.333333333333333</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1740,73 +1740,73 @@
         <v>0</v>
       </c>
       <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
         <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
         <v>10</v>
       </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
       <c r="J18">
-        <v>804</v>
+        <v>-7</v>
       </c>
       <c r="K18">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="L18">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="P18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="V18">
         <v>3.5</v>
       </c>
       <c r="W18">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="X18">
-        <v>5.5</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1814,73 +1814,73 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>13</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K19">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R19">
+        <v>4.25</v>
+      </c>
+      <c r="S19">
         <v>3.5</v>
       </c>
-      <c r="S19">
-        <v>2.75</v>
-      </c>
       <c r="T19">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
         <v>3.75</v>
       </c>
       <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
         <v>2.75</v>
       </c>
-      <c r="W19">
-        <v>2.5</v>
-      </c>
       <c r="X19">
-        <v>6</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -1962,73 +1962,73 @@
         <v>0</v>
       </c>
       <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
       </c>
       <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
         <v>15</v>
       </c>
-      <c r="F21">
-        <v>13</v>
-      </c>
       <c r="G21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I21">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J21">
-        <v>1179</v>
+        <v>603</v>
       </c>
       <c r="K21">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>4.5</v>
+      </c>
+      <c r="R21">
         <v>5</v>
       </c>
-      <c r="Q21">
-        <v>3</v>
-      </c>
-      <c r="R21">
-        <v>4.25</v>
-      </c>
       <c r="S21">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="T21">
+        <v>3.75</v>
+      </c>
+      <c r="U21">
         <v>3.5</v>
-      </c>
-      <c r="U21">
-        <v>4.25</v>
       </c>
       <c r="V21">
         <v>3.5</v>
       </c>
       <c r="W21">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X21">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2036,73 +2036,73 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>804</v>
+      </c>
+      <c r="K22">
+        <v>62</v>
+      </c>
+      <c r="L22">
+        <v>53</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>27</v>
+      </c>
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22">
         <v>12</v>
       </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-      <c r="I22">
-        <v>9</v>
-      </c>
-      <c r="J22">
-        <v>539</v>
-      </c>
-      <c r="K22">
-        <v>23</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>16</v>
-      </c>
-      <c r="N22">
-        <v>14</v>
-      </c>
-      <c r="O22">
-        <v>14</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
       <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>2.5</v>
+      </c>
+      <c r="V22">
         <v>3.5</v>
       </c>
-      <c r="R22">
-        <v>4.5</v>
-      </c>
-      <c r="S22">
-        <v>4.5</v>
-      </c>
-      <c r="T22">
-        <v>3.5</v>
-      </c>
-      <c r="U22">
-        <v>3.75</v>
-      </c>
-      <c r="V22">
-        <v>2.75</v>
-      </c>
       <c r="W22">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -2119,64 +2119,64 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>539</v>
+      </c>
+      <c r="K23">
+        <v>23</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
         <v>14</v>
       </c>
-      <c r="G23">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="O23">
+        <v>14</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>3.5</v>
+      </c>
+      <c r="R23">
+        <v>4.5</v>
+      </c>
+      <c r="S23">
+        <v>4.5</v>
+      </c>
+      <c r="T23">
+        <v>3.5</v>
+      </c>
+      <c r="U23">
+        <v>3.75</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>4.5</v>
+      </c>
+      <c r="X23">
         <v>7</v>
-      </c>
-      <c r="J23">
-        <v>264</v>
-      </c>
-      <c r="K23">
-        <v>45</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <v>9</v>
-      </c>
-      <c r="N23">
-        <v>11</v>
-      </c>
-      <c r="O23">
-        <v>11</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>3.75</v>
-      </c>
-      <c r="R23">
-        <v>4.25</v>
-      </c>
-      <c r="S23">
-        <v>3.5</v>
-      </c>
-      <c r="T23">
-        <v>3.25</v>
-      </c>
-      <c r="U23">
-        <v>4</v>
-      </c>
-      <c r="V23">
-        <v>3.75</v>
-      </c>
-      <c r="W23">
-        <v>4</v>
-      </c>
-      <c r="X23">
-        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2190,67 +2190,67 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>6</v>
       </c>
       <c r="J24">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="K24">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
         <v>9</v>
       </c>
-      <c r="N24">
-        <v>4</v>
-      </c>
       <c r="O24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="R24">
+        <v>4.5</v>
+      </c>
+      <c r="S24">
+        <v>4.75</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>3.5</v>
+      </c>
+      <c r="V24">
+        <v>4</v>
+      </c>
+      <c r="W24">
         <v>4.25</v>
       </c>
-      <c r="S24">
-        <v>3.5</v>
-      </c>
-      <c r="T24">
-        <v>3.25</v>
-      </c>
-      <c r="U24">
-        <v>3.75</v>
-      </c>
-      <c r="V24">
-        <v>4</v>
-      </c>
-      <c r="W24">
-        <v>3.5</v>
-      </c>
       <c r="X24">
-        <v>5.5</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2258,73 +2258,73 @@
         <v>0</v>
       </c>
       <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>14</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H25">
         <v>16</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K25">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
         <v>11</v>
       </c>
-      <c r="M25">
-        <v>6</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
       <c r="O25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R25">
         <v>4.25</v>
       </c>
       <c r="S25">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
         <v>4</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W25">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="X25">
-        <v>4.833333333333333</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -2341,143 +2341,143 @@
         <v>27</v>
       </c>
       <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
         <v>16</v>
       </c>
-      <c r="F26">
-        <v>16</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
       <c r="I26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="K26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>2</v>
       </c>
       <c r="Q26">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R26">
+        <v>4.25</v>
+      </c>
+      <c r="S26">
+        <v>4.25</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <v>3</v>
+      </c>
+      <c r="W26">
         <v>3.25</v>
       </c>
-      <c r="S26">
-        <v>2.25</v>
-      </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>2.25</v>
-      </c>
-      <c r="V26">
-        <v>2.25</v>
-      </c>
-      <c r="W26">
-        <v>1.5</v>
-      </c>
       <c r="X26">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E27">
         <v>13</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J27">
-        <v>808</v>
+        <v>147</v>
       </c>
       <c r="K27">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="O27">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
         <v>3.5</v>
       </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
       <c r="S27">
+        <v>2.75</v>
+      </c>
+      <c r="T27">
+        <v>3.25</v>
+      </c>
+      <c r="U27">
         <v>3.75</v>
       </c>
-      <c r="T27">
-        <v>3.75</v>
-      </c>
-      <c r="U27">
+      <c r="V27">
         <v>2.75</v>
       </c>
-      <c r="V27">
-        <v>3.5</v>
-      </c>
       <c r="W27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X27">
-        <v>5.333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
         <v>21</v>
@@ -2489,223 +2489,223 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F28">
         <v>14</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J28">
-        <v>448</v>
+        <v>316</v>
       </c>
       <c r="K28">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O28">
         <v>11</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R28">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="S28">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="V28">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="X28">
-        <v>6.833333333333333</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29">
+        <v>16</v>
+      </c>
+      <c r="G29">
         <v>12</v>
       </c>
-      <c r="G29">
-        <v>14</v>
-      </c>
       <c r="H29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>483</v>
+        <v>165</v>
       </c>
       <c r="K29">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>2</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="R29">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="S29">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="V29">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="W29">
-        <v>4.25</v>
+        <v>1.5</v>
       </c>
       <c r="X29">
-        <v>4.166666666666667</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J30">
-        <v>348</v>
+        <v>1127</v>
       </c>
       <c r="K30">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="S30">
+        <v>2.75</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
+        <v>2.75</v>
+      </c>
+      <c r="V30">
+        <v>3.25</v>
+      </c>
+      <c r="W30">
+        <v>3.25</v>
+      </c>
+      <c r="X30">
         <v>4.5</v>
-      </c>
-      <c r="T30">
-        <v>4.75</v>
-      </c>
-      <c r="U30">
-        <v>4.75</v>
-      </c>
-      <c r="V30">
-        <v>4.5</v>
-      </c>
-      <c r="W30">
-        <v>4.25</v>
-      </c>
-      <c r="X30">
-        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
@@ -2714,61 +2714,61 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>138</v>
+        <v>1179</v>
       </c>
       <c r="K31">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N31">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q31">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R31">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="S31">
         <v>4.25</v>
       </c>
       <c r="T31">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U31">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="V31">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W31">
         <v>3.5</v>
       </c>
       <c r="X31">
-        <v>5.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2850,73 +2850,73 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+      <c r="J33">
+        <v>808</v>
+      </c>
+      <c r="K33">
+        <v>55</v>
+      </c>
+      <c r="L33">
+        <v>59</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>48</v>
+      </c>
+      <c r="O33">
+        <v>32</v>
+      </c>
+      <c r="P33">
         <v>16</v>
-      </c>
-      <c r="F33">
-        <v>16</v>
-      </c>
-      <c r="G33">
-        <v>13</v>
-      </c>
-      <c r="H33">
-        <v>17</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>611</v>
-      </c>
-      <c r="K33">
-        <v>30</v>
-      </c>
-      <c r="L33">
-        <v>19</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>16</v>
-      </c>
-      <c r="O33">
-        <v>14</v>
-      </c>
-      <c r="P33">
-        <v>2</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
       </c>
       <c r="R33">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T33">
+        <v>3.75</v>
+      </c>
+      <c r="U33">
         <v>2.75</v>
       </c>
-      <c r="U33">
-        <v>3.25</v>
-      </c>
       <c r="V33">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W33">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X33">
-        <v>6</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
@@ -2933,64 +2933,64 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G34">
         <v>12</v>
       </c>
       <c r="H34">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>91</v>
+        <v>448</v>
       </c>
       <c r="K34">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M34">
         <v>2</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>4.25</v>
       </c>
       <c r="W34">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="X34">
-        <v>2.666666666666667</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3001,70 +3001,70 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J35">
-        <v>85</v>
+        <v>574</v>
       </c>
       <c r="K35">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L35">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="P35">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="Q35">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R35">
+        <v>4.25</v>
+      </c>
+      <c r="S35">
+        <v>4.5</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35">
+        <v>3.25</v>
+      </c>
+      <c r="V35">
         <v>3.5</v>
       </c>
-      <c r="S35">
-        <v>3.25</v>
-      </c>
-      <c r="T35">
-        <v>2.25</v>
-      </c>
-      <c r="U35">
-        <v>2.75</v>
-      </c>
-      <c r="V35">
-        <v>2.5</v>
-      </c>
       <c r="W35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="X35">
-        <v>6.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3075,70 +3075,70 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>27</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F36">
         <v>12</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H36">
+        <v>9</v>
+      </c>
+      <c r="I36">
         <v>8</v>
       </c>
-      <c r="I36">
-        <v>7</v>
-      </c>
       <c r="J36">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="K36">
+        <v>21</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>13</v>
+      </c>
+      <c r="O36">
         <v>11</v>
       </c>
-      <c r="L36">
-        <v>15</v>
-      </c>
-      <c r="M36">
+      <c r="P36">
         <v>2</v>
       </c>
-      <c r="N36">
-        <v>13</v>
-      </c>
-      <c r="O36">
-        <v>3</v>
-      </c>
-      <c r="P36">
-        <v>10</v>
-      </c>
       <c r="Q36">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R36">
         <v>4.5</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T36">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="V36">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="W36">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="X36">
-        <v>6.5</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
@@ -3155,64 +3155,64 @@
         <v>27</v>
       </c>
       <c r="E37">
+        <v>15</v>
+      </c>
+      <c r="F37">
+        <v>16</v>
+      </c>
+      <c r="G37">
         <v>12</v>
       </c>
-      <c r="F37">
-        <v>14</v>
-      </c>
-      <c r="G37">
+      <c r="H37">
         <v>10</v>
       </c>
-      <c r="H37">
-        <v>14</v>
-      </c>
       <c r="I37">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J37">
-        <v>532</v>
+        <v>138</v>
       </c>
       <c r="K37">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q37">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R37">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="S37">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="T37">
         <v>3.25</v>
       </c>
       <c r="U37">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="V37">
+        <v>3.75</v>
+      </c>
+      <c r="W37">
         <v>3.5</v>
       </c>
-      <c r="W37">
-        <v>1.75</v>
-      </c>
       <c r="X37">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3220,7 +3220,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -3229,64 +3229,64 @@
         <v>27</v>
       </c>
       <c r="E38">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38">
         <v>15</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="J38">
+        <v>348</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>15</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
+      <c r="O38">
+        <v>8</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>4.5</v>
+      </c>
+      <c r="T38">
+        <v>4.75</v>
+      </c>
+      <c r="U38">
+        <v>4.75</v>
+      </c>
+      <c r="V38">
+        <v>4.5</v>
+      </c>
+      <c r="W38">
+        <v>4.25</v>
+      </c>
+      <c r="X38">
         <v>7</v>
-      </c>
-      <c r="J38">
-        <v>323</v>
-      </c>
-      <c r="K38">
-        <v>21</v>
-      </c>
-      <c r="L38">
-        <v>8</v>
-      </c>
-      <c r="M38">
-        <v>8</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>3.25</v>
-      </c>
-      <c r="R38">
-        <v>4</v>
-      </c>
-      <c r="S38">
-        <v>3</v>
-      </c>
-      <c r="T38">
-        <v>2.75</v>
-      </c>
-      <c r="U38">
-        <v>3.25</v>
-      </c>
-      <c r="V38">
-        <v>3.5</v>
-      </c>
-      <c r="W38">
-        <v>3.25</v>
-      </c>
-      <c r="X38">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3294,73 +3294,73 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>611</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>16</v>
+      </c>
+      <c r="O39">
         <v>14</v>
       </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <v>12</v>
-      </c>
-      <c r="H39">
-        <v>13</v>
-      </c>
-      <c r="I39">
-        <v>15</v>
-      </c>
-      <c r="J39">
-        <v>911</v>
-      </c>
-      <c r="K39">
-        <v>41</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>12</v>
-      </c>
-      <c r="N39">
-        <v>13</v>
-      </c>
-      <c r="O39">
-        <v>4</v>
-      </c>
       <c r="P39">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q39">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R39">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="S39">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="V39">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W39">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="X39">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3368,73 +3368,73 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I40">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J40">
-        <v>384</v>
+        <v>1077</v>
       </c>
       <c r="K40">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="O40">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="P40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q40">
+        <v>2.75</v>
+      </c>
+      <c r="R40">
+        <v>4.75</v>
+      </c>
+      <c r="S40">
+        <v>4.75</v>
+      </c>
+      <c r="T40">
+        <v>2.75</v>
+      </c>
+      <c r="U40">
+        <v>3.75</v>
+      </c>
+      <c r="V40">
+        <v>4.25</v>
+      </c>
+      <c r="W40">
         <v>2.5</v>
       </c>
-      <c r="R40">
-        <v>3.5</v>
-      </c>
-      <c r="S40">
-        <v>2.75</v>
-      </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>2.75</v>
-      </c>
-      <c r="V40">
-        <v>1.75</v>
-      </c>
-      <c r="W40">
-        <v>2.25</v>
-      </c>
       <c r="X40">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3442,73 +3442,73 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>91</v>
+      </c>
+      <c r="K41">
         <v>18</v>
       </c>
-      <c r="F41">
-        <v>16</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>14</v>
-      </c>
-      <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41">
-        <v>294</v>
-      </c>
-      <c r="K41">
+      <c r="L41">
         <v>8</v>
       </c>
-      <c r="L41">
-        <v>12</v>
-      </c>
       <c r="M41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="O41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q41">
+        <v>3</v>
+      </c>
+      <c r="R41">
         <v>3.5</v>
       </c>
-      <c r="R41">
-        <v>4.25</v>
-      </c>
       <c r="S41">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="T41">
         <v>2.75</v>
       </c>
       <c r="U41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V41">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X41">
-        <v>5.833333333333333</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3525,64 +3525,64 @@
         <v>27</v>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G42">
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>441</v>
+      </c>
+      <c r="K42">
         <v>11</v>
       </c>
-      <c r="H42">
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>2</v>
+      </c>
+      <c r="N42">
+        <v>13</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="P42">
         <v>10</v>
-      </c>
-      <c r="I42">
-        <v>9</v>
-      </c>
-      <c r="J42">
-        <v>554</v>
-      </c>
-      <c r="K42">
-        <v>12</v>
-      </c>
-      <c r="L42">
-        <v>35</v>
-      </c>
-      <c r="M42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>31</v>
-      </c>
-      <c r="O42">
-        <v>14</v>
-      </c>
-      <c r="P42">
-        <v>17</v>
       </c>
       <c r="Q42">
         <v>2.75</v>
       </c>
       <c r="R42">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="T42">
+        <v>3.75</v>
+      </c>
+      <c r="U42">
         <v>3.5</v>
       </c>
-      <c r="T42">
-        <v>1.5</v>
-      </c>
-      <c r="U42">
-        <v>1.5</v>
-      </c>
       <c r="V42">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="W42">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="X42">
-        <v>6.166666666666667</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3599,64 +3599,64 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I43">
         <v>18</v>
       </c>
       <c r="J43">
-        <v>1246</v>
+        <v>1220</v>
       </c>
       <c r="K43">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L43">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O43">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="S43">
         <v>3.25</v>
       </c>
       <c r="T43">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U43">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="V43">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="W43">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X43">
-        <v>4.5</v>
+        <v>6.166666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3667,70 +3667,70 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <v>14</v>
       </c>
       <c r="G44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H44">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I44">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J44">
-        <v>729</v>
+        <v>365</v>
       </c>
       <c r="K44">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O44">
         <v>6</v>
       </c>
       <c r="P44">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q44">
+        <v>3</v>
+      </c>
+      <c r="R44">
+        <v>3.75</v>
+      </c>
+      <c r="S44">
+        <v>3.75</v>
+      </c>
+      <c r="T44">
         <v>2.25</v>
-      </c>
-      <c r="R44">
-        <v>4.25</v>
-      </c>
-      <c r="S44">
-        <v>4.5</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
       </c>
       <c r="U44">
         <v>3.5</v>
       </c>
       <c r="V44">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W44">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="X44">
-        <v>3.833333333333333</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3738,73 +3738,73 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>16</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>268</v>
+      </c>
+      <c r="K45">
+        <v>40</v>
+      </c>
+      <c r="L45">
+        <v>24</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>24</v>
+      </c>
+      <c r="O45">
         <v>14</v>
       </c>
-      <c r="I45">
+      <c r="P45">
         <v>10</v>
       </c>
-      <c r="J45">
-        <v>668</v>
-      </c>
-      <c r="K45">
-        <v>14</v>
-      </c>
-      <c r="L45">
-        <v>28</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>25</v>
-      </c>
-      <c r="O45">
-        <v>7</v>
-      </c>
-      <c r="P45">
-        <v>18</v>
-      </c>
       <c r="Q45">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S45">
+        <v>4.75</v>
+      </c>
+      <c r="T45">
         <v>3.75</v>
       </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
       <c r="U45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V45">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X45">
-        <v>4.333333333333333</v>
+        <v>6.833333333333333</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3812,73 +3812,73 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
       </c>
       <c r="E46">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="H46">
-        <v>7</v>
-      </c>
       <c r="I46">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>958</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>5</v>
       </c>
-      <c r="Q46">
-        <v>3.5</v>
-      </c>
       <c r="R46">
         <v>4</v>
       </c>
       <c r="S46">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V46">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="W46">
         <v>3.75</v>
       </c>
       <c r="X46">
-        <v>5.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3886,73 +3886,73 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
         <v>27</v>
       </c>
       <c r="E47">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F47">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+      <c r="I47">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>958</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
         <v>12</v>
       </c>
-      <c r="G47">
-        <v>12</v>
-      </c>
-      <c r="H47">
-        <v>8</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>11</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
       <c r="N47">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="R47">
         <v>4</v>
       </c>
       <c r="S47">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="T47">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="U47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V47">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="W47">
         <v>3.75</v>
       </c>
       <c r="X47">
-        <v>6.333333333333333</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -3960,73 +3960,73 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48">
         <v>16</v>
       </c>
       <c r="G48">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>668</v>
+      </c>
+      <c r="K48">
+        <v>14</v>
+      </c>
+      <c r="L48">
+        <v>28</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>25</v>
+      </c>
+      <c r="O48">
         <v>7</v>
       </c>
-      <c r="J48">
-        <v>268</v>
-      </c>
-      <c r="K48">
-        <v>40</v>
-      </c>
-      <c r="L48">
-        <v>24</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>24</v>
-      </c>
-      <c r="O48">
-        <v>14</v>
-      </c>
       <c r="P48">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q48">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="T48">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="W48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X48">
-        <v>6.833333333333333</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4037,70 +4037,70 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>14</v>
       </c>
       <c r="G49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I49">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J49">
-        <v>365</v>
+        <v>729</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N49">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="O49">
         <v>6</v>
       </c>
       <c r="P49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R49">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="S49">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
         <v>3.5</v>
       </c>
       <c r="V49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W49">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="X49">
-        <v>5.833333333333333</v>
+        <v>3.833333333333333</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -4117,64 +4117,64 @@
         <v>27</v>
       </c>
       <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>14</v>
+      </c>
+      <c r="G50">
         <v>12</v>
       </c>
-      <c r="F50">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>9</v>
-      </c>
       <c r="H50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J50">
-        <v>926</v>
+        <v>1246</v>
       </c>
       <c r="K50">
+        <v>36</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>30</v>
+      </c>
+      <c r="O50">
         <v>25</v>
       </c>
-      <c r="L50">
-        <v>10</v>
-      </c>
-      <c r="M50">
-        <v>8</v>
-      </c>
-      <c r="N50">
+      <c r="P50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
         <v>2</v>
       </c>
-      <c r="O50">
-        <v>2</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>3.75</v>
-      </c>
       <c r="R50">
+        <v>3.5</v>
+      </c>
+      <c r="S50">
+        <v>3.25</v>
+      </c>
+      <c r="T50">
+        <v>1.75</v>
+      </c>
+      <c r="U50">
+        <v>1.75</v>
+      </c>
+      <c r="V50">
+        <v>2.25</v>
+      </c>
+      <c r="W50">
+        <v>2.75</v>
+      </c>
+      <c r="X50">
         <v>4.5</v>
-      </c>
-      <c r="S50">
-        <v>4.5</v>
-      </c>
-      <c r="T50">
-        <v>4.5</v>
-      </c>
-      <c r="U50">
-        <v>4</v>
-      </c>
-      <c r="V50">
-        <v>3.5</v>
-      </c>
-      <c r="W50">
-        <v>4.5</v>
-      </c>
-      <c r="X50">
-        <v>6.666666666666667</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4182,72 +4182,812 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>554</v>
+      </c>
+      <c r="K51">
         <v>12</v>
       </c>
-      <c r="H51">
-        <v>12</v>
-      </c>
-      <c r="I51">
-        <v>4</v>
-      </c>
-      <c r="J51">
-        <v>203</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
       <c r="L51">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="Q51">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="R51">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="S51">
         <v>3.5</v>
       </c>
       <c r="T51">
+        <v>1.5</v>
+      </c>
+      <c r="U51">
+        <v>1.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>2.25</v>
+      </c>
+      <c r="X51">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>24</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>9</v>
+      </c>
+      <c r="J52">
+        <v>395</v>
+      </c>
+      <c r="K52">
+        <v>45</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>17</v>
+      </c>
+      <c r="O52">
+        <v>15</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+      <c r="Q52">
+        <v>5</v>
+      </c>
+      <c r="R52">
+        <v>4.5</v>
+      </c>
+      <c r="S52">
+        <v>4.25</v>
+      </c>
+      <c r="T52">
+        <v>4.25</v>
+      </c>
+      <c r="U52">
+        <v>5</v>
+      </c>
+      <c r="V52">
+        <v>4</v>
+      </c>
+      <c r="W52">
+        <v>4.75</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>14</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>294</v>
+      </c>
+      <c r="K53">
+        <v>8</v>
+      </c>
+      <c r="L53">
+        <v>12</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>10</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>3.5</v>
+      </c>
+      <c r="R53">
+        <v>4.25</v>
+      </c>
+      <c r="S53">
+        <v>4.25</v>
+      </c>
+      <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>3</v>
+      </c>
+      <c r="V53">
+        <v>3.5</v>
+      </c>
+      <c r="W53">
+        <v>2.25</v>
+      </c>
+      <c r="X53">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="F54">
+        <v>13</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>384</v>
+      </c>
+      <c r="K54">
+        <v>54</v>
+      </c>
+      <c r="L54">
+        <v>31</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>28</v>
+      </c>
+      <c r="O54">
+        <v>15</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="Q54">
         <v>2.5</v>
       </c>
-      <c r="U51">
+      <c r="R54">
+        <v>3.5</v>
+      </c>
+      <c r="S54">
         <v>2.75</v>
       </c>
-      <c r="V51">
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>2.75</v>
+      </c>
+      <c r="V54">
+        <v>1.75</v>
+      </c>
+      <c r="W54">
+        <v>2.25</v>
+      </c>
+      <c r="X54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>15</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>13</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>85</v>
+      </c>
+      <c r="K55">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>2.5</v>
+      </c>
+      <c r="R55">
+        <v>3.5</v>
+      </c>
+      <c r="S55">
+        <v>3.25</v>
+      </c>
+      <c r="T55">
+        <v>2.25</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>2.5</v>
+      </c>
+      <c r="W55">
+        <v>2.5</v>
+      </c>
+      <c r="X55">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>13</v>
+      </c>
+      <c r="G56">
+        <v>12</v>
+      </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
+      <c r="I56">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>911</v>
+      </c>
+      <c r="K56">
+        <v>41</v>
+      </c>
+      <c r="L56">
+        <v>25</v>
+      </c>
+      <c r="M56">
+        <v>12</v>
+      </c>
+      <c r="N56">
+        <v>13</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="P56">
+        <v>9</v>
+      </c>
+      <c r="Q56">
+        <v>3</v>
+      </c>
+      <c r="R56">
+        <v>2.25</v>
+      </c>
+      <c r="S56">
+        <v>2.25</v>
+      </c>
+      <c r="T56">
+        <v>2</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56">
+        <v>3</v>
+      </c>
+      <c r="W56">
+        <v>2.25</v>
+      </c>
+      <c r="X56">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>15</v>
+      </c>
+      <c r="G57">
+        <v>17</v>
+      </c>
+      <c r="H57">
+        <v>12</v>
+      </c>
+      <c r="I57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>391</v>
+      </c>
+      <c r="K57">
+        <v>83</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>1.75</v>
+      </c>
+      <c r="R57">
+        <v>2.75</v>
+      </c>
+      <c r="S57">
+        <v>2.25</v>
+      </c>
+      <c r="T57">
+        <v>2</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="V57">
+        <v>1.75</v>
+      </c>
+      <c r="W57">
+        <v>1.25</v>
+      </c>
+      <c r="X57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+      <c r="G58">
+        <v>8</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <v>323</v>
+      </c>
+      <c r="K58">
+        <v>21</v>
+      </c>
+      <c r="L58">
+        <v>8</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>3.25</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>3</v>
+      </c>
+      <c r="T58">
+        <v>2.75</v>
+      </c>
+      <c r="U58">
+        <v>3.25</v>
+      </c>
+      <c r="V58">
+        <v>3.5</v>
+      </c>
+      <c r="W58">
+        <v>3.25</v>
+      </c>
+      <c r="X58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>15</v>
+      </c>
+      <c r="J59">
+        <v>532</v>
+      </c>
+      <c r="K59">
+        <v>137</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>12</v>
+      </c>
+      <c r="N59">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3.25</v>
+      </c>
+      <c r="R59">
+        <v>4.75</v>
+      </c>
+      <c r="S59">
+        <v>4.5</v>
+      </c>
+      <c r="T59">
+        <v>3.25</v>
+      </c>
+      <c r="U59">
+        <v>2.5</v>
+      </c>
+      <c r="V59">
+        <v>3.5</v>
+      </c>
+      <c r="W59">
+        <v>1.75</v>
+      </c>
+      <c r="X59">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>13</v>
+      </c>
+      <c r="J60">
+        <v>926</v>
+      </c>
+      <c r="K60">
+        <v>25</v>
+      </c>
+      <c r="L60">
+        <v>10</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>3.75</v>
+      </c>
+      <c r="R60">
+        <v>4.5</v>
+      </c>
+      <c r="S60">
+        <v>4.5</v>
+      </c>
+      <c r="T60">
+        <v>4.5</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60">
+        <v>3.5</v>
+      </c>
+      <c r="W60">
+        <v>4.5</v>
+      </c>
+      <c r="X60">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>12</v>
+      </c>
+      <c r="H61">
+        <v>12</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>203</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+      <c r="Q61">
+        <v>2.5</v>
+      </c>
+      <c r="R61">
+        <v>3.75</v>
+      </c>
+      <c r="S61">
+        <v>3.5</v>
+      </c>
+      <c r="T61">
+        <v>2.5</v>
+      </c>
+      <c r="U61">
+        <v>2.75</v>
+      </c>
+      <c r="V61">
         <v>1.5</v>
       </c>
-      <c r="W51">
+      <c r="W61">
         <v>2.75</v>
       </c>
-      <c r="X51">
+      <c r="X61">
         <v>5.5</v>
       </c>
     </row>
@@ -4334,64 +5074,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>24.96</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="F2">
-        <v>8.359999999999999</v>
+        <v>9.266666666666667</v>
       </c>
       <c r="G2">
-        <v>408.64</v>
+        <v>453.4</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>46.73333333333333</v>
       </c>
       <c r="I2">
-        <v>18.04</v>
+        <v>21.43333333333333</v>
       </c>
       <c r="J2">
-        <v>9.24</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>8.800000000000001</v>
+        <v>10.43333333333333</v>
       </c>
       <c r="L2">
-        <v>5.48</v>
+        <v>6.766666666666667</v>
       </c>
       <c r="M2">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="N2">
-        <v>3.07</v>
+        <v>3.141666666666667</v>
       </c>
       <c r="O2">
-        <v>4.15</v>
+        <v>4.158333333333333</v>
       </c>
       <c r="P2">
-        <v>3.79</v>
+        <v>3.825</v>
       </c>
       <c r="Q2">
-        <v>3.03</v>
+        <v>3.091666666666667</v>
       </c>
       <c r="R2">
-        <v>3.27</v>
+        <v>3.258333333333333</v>
       </c>
       <c r="S2">
-        <v>2.88</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="T2">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="U2">
-        <v>5.386666666666668</v>
+        <v>5.327777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -4399,64 +5139,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>25.04</v>
+        <v>24.6</v>
       </c>
       <c r="F3">
-        <v>9.039999999999999</v>
+        <v>9.733333333333333</v>
       </c>
       <c r="G3">
-        <v>500.92</v>
+        <v>539.3333333333334</v>
       </c>
       <c r="H3">
-        <v>32.48</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="I3">
-        <v>19.4</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="J3">
-        <v>4.84</v>
+        <v>4.4</v>
       </c>
       <c r="K3">
-        <v>14.56</v>
+        <v>17.13333333333333</v>
       </c>
       <c r="L3">
-        <v>8.76</v>
+        <v>10.46666666666667</v>
       </c>
       <c r="M3">
-        <v>5.72</v>
+        <v>6.6</v>
       </c>
       <c r="N3">
-        <v>3.23</v>
+        <v>3.225</v>
       </c>
       <c r="O3">
-        <v>4.01</v>
+        <v>3.991666666666667</v>
       </c>
       <c r="P3">
-        <v>3.82</v>
+        <v>3.816666666666667</v>
       </c>
       <c r="Q3">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="R3">
-        <v>3.28</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="S3">
-        <v>3.12</v>
+        <v>3.158333333333333</v>
       </c>
       <c r="T3">
-        <v>3.03</v>
+        <v>3.008333333333333</v>
       </c>
       <c r="U3">
-        <v>5.533333333333332</v>
+        <v>5.555555555555554</v>
       </c>
     </row>
   </sheetData>
